--- a/Lernfeld 4 Teil 4/Prüfplan Allgemein.xlsx
+++ b/Lernfeld 4 Teil 4/Prüfplan Allgemein.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Downloads\Neuer Ordner\Lernfeld 4\Lernfeld 4 Teil 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409637A-E33A-4E35-ABB2-8DE9F5CD0A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC6AC7B-98E9-4A80-B3F0-A9EBA64D3D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="126">
   <si>
     <t>Anforderungen</t>
   </si>
@@ -108,9 +108,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Gibt keine Passwörter</t>
-  </si>
-  <si>
     <t>SYS.2.1.A2</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>Programme werden von der IT installiert und keine Regeln ersichtlich</t>
+  </si>
+  <si>
+    <t>Gibt keine Passwörter / Admin-Passwort ist unsicher</t>
   </si>
 </sst>
 </file>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -894,15 +894,15 @@
         <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -925,15 +925,15 @@
         <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -952,10 +952,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -980,27 +980,27 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -1008,15 +1008,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1028,15 +1028,15 @@
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1045,12 +1045,12 @@
         <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1073,15 +1073,15 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1093,15 +1093,15 @@
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1113,38 +1113,38 @@
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -1152,16 +1152,16 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -1172,16 +1172,16 @@
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -1192,16 +1192,16 @@
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -1212,16 +1212,16 @@
         <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -1232,36 +1232,36 @@
         <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -1272,16 +1272,16 @@
         <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -1289,20 +1289,20 @@
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
         <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1313,65 +1313,65 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
         <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -1379,16 +1379,16 @@
         <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -1396,33 +1396,33 @@
         <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
         <v>98</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
         <v>99</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -1430,91 +1430,79 @@
         <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
         <v>104</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
         <v>107</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -1528,12 +1516,12 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="H50" t="s">
@@ -1545,47 +1533,30 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" t="s">
         <v>14</v>
       </c>
       <c r="H51" t="s">
         <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
-        <v>125</v>
+      <c r="I52" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
